--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B868CF-1D12-42E6-ADF6-1E8F0C4AF0D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9568C-3161-40D8-B217-E6FA7DC1AF8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8172" yWindow="516" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法伤害150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>减速全场敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害150%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -550,13 +550,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -573,10 +573,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9568C-3161-40D8-B217-E6FA7DC1AF8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF99A7D-952C-4FDF-AFA1-E4CF4CD63903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF99A7D-952C-4FDF-AFA1-E4CF4CD63903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1C17A-A9B6-4C6A-BC8F-D758A89F2DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14124" yWindow="264" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1C17A-A9B6-4C6A-BC8F-D758A89F2DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54149D7-6E2D-4186-9233-85789E37518C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14124" yWindow="264" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="1752" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,60 +70,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物理加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害提升到150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结全场敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害提升到150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结全场敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速全场敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,82 +510,82 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
